--- a/userEdition/standardGeography.xlsx
+++ b/userEdition/standardGeography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E30D7D-E40A-4859-B6FB-F7E412248F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3796B9D-E149-49C3-8176-6F47E208BB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17700" yWindow="870" windowWidth="20145" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -52,18 +52,12 @@
     <t>Major Five Asia</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
     <t>AE</t>
   </si>
   <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>Football</t>
-  </si>
-  <si>
     <t>AFG</t>
   </si>
   <si>
@@ -328,21 +322,12 @@
     <t>Congo</t>
   </si>
   <si>
-    <t>AirTraffic</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
-    <t>MoonSun</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Weather</t>
-  </si>
-  <si>
     <t>CHA</t>
   </si>
   <si>
@@ -1721,6 +1706,21 @@
   </si>
   <si>
     <t>TWN</t>
+  </si>
+  <si>
+    <t>airTraffic</t>
+  </si>
+  <si>
+    <t>FIFA</t>
+  </si>
+  <si>
+    <t>moonSun</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>weather</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2088,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2112,5823 +2112,5823 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C79" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C102" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C104" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C107" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C109" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C110" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C111" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C112" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C113" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C115" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C117" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C118" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C119" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C120" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C121" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C122" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C123" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C124" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C125" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C126" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C127" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D127" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C128" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D128" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C129" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C130" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C131" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C132" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C133" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D133" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C134" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C135" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C136" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D136" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C138" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C139" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C140" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C141" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C145" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C146" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C147" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C148" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C149" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C151" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C152" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C153" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C154" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C155" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C156" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C157" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C158" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C159" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C160" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C161" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C162" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D162" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C163" t="s">
+        <v>399</v>
+      </c>
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D163" t="s">
-        <v>21</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C164" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D164" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C165" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C166" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C167" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C168" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D168" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C169" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C170" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D170" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C171" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C172" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D172" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C173" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C174" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C175" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C176" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C177" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C178" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C179" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D179" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C180" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D180" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C181" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C182" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D182" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C183" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C184" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D184" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C185" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C186" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C187" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D187" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C188" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D188" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C189" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D189" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C190" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D190" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C191" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D191" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C192" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C193" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D193" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C194" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D194" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C195" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D195" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C196" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D196" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C197" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D197" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C198" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C199" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D199" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C200" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D200" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C201" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C202" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D202" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C203" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D203" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C204" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C205" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C206" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D206" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C207" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C208" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D208" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C209" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D209" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C210" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D210" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C211" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D211" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C212" t="s">
+        <v>508</v>
+      </c>
+      <c r="D212" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D212" t="s">
-        <v>21</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="F212" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C214" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D214" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C215" t="s">
+        <v>517</v>
+      </c>
+      <c r="D215" t="s">
+        <v>19</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D215" t="s">
-        <v>21</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="F215" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C216" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D216" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C217" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D217" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C218" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C219" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D219" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C220" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D220" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C221" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C222" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C223" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D223" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C224" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D224" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C225" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C226" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D226" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C227" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C228" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D228" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C229" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D229" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C230" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D230" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C231" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D231" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>103</v>
+        <v>563</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>103</v>
+        <v>563</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>103</v>
+        <v>563</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>103</v>
+        <v>563</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>103</v>
+        <v>563</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>103</v>
+        <v>563</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="C238" t="s">
         <v>10</v>
       </c>
-      <c r="C238" t="s">
-        <v>11</v>
-      </c>
       <c r="E238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C239" t="s">
+        <v>30</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C239" t="s">
-        <v>32</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F239" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C240" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C241" t="s">
+        <v>45</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C241" t="s">
-        <v>47</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F241" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C242" t="s">
+        <v>57</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C242" t="s">
-        <v>59</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F242" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C243" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C244" t="s">
+        <v>78</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C244" t="s">
-        <v>80</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F244" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B245" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C245" t="s">
+        <v>83</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C245" t="s">
-        <v>85</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F245" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C246" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C247" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C248" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C249" t="s">
+        <v>116</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E249" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F249" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C250" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C251" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C252" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C253" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C254" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C255" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C256" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C257" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C258" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C259" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C260" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C261" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C262" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C263" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C264" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C265" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C266" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C267" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C268" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C269" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C270" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C271" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C272" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C273" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C275" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C276" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C277" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C278" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C279" t="s">
+        <v>311</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E279" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="F279" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C280" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C281" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C282" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C283" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C284" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C285" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C286" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C287" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C288" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C289" t="s">
+        <v>399</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E289" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="F289" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C290" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C291" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C292" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C293" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C294" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C295" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C296" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C297" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C298" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C299" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C300" t="s">
+        <v>508</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E300" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="F300" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C301" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C302" t="s">
+        <v>517</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E302" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="F302" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C303" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C304" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C305" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C306" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -7953,16 +7953,16 @@
         <v>6</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C308" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -7970,16 +7970,16 @@
         <v>6</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C309" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -7987,16 +7987,16 @@
         <v>6</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C310" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -8004,16 +8004,16 @@
         <v>6</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C311" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -8021,16 +8021,16 @@
         <v>6</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C312" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -8038,16 +8038,16 @@
         <v>6</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C313" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -8055,16 +8055,16 @@
         <v>6</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C314" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -8072,16 +8072,16 @@
         <v>6</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C315" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -8089,16 +8089,16 @@
         <v>6</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C316" t="s">
+        <v>116</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E316" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F316" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -8106,16 +8106,16 @@
         <v>6</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C317" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -8123,16 +8123,16 @@
         <v>6</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C318" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -8140,16 +8140,16 @@
         <v>6</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C319" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8157,16 +8157,16 @@
         <v>6</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C320" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -8174,16 +8174,16 @@
         <v>6</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C321" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -8191,16 +8191,16 @@
         <v>6</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C322" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -8208,16 +8208,16 @@
         <v>6</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C323" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -8225,16 +8225,16 @@
         <v>6</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C324" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -8242,16 +8242,16 @@
         <v>6</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C325" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -8259,16 +8259,16 @@
         <v>6</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C326" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -8276,16 +8276,16 @@
         <v>6</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C327" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -8293,16 +8293,16 @@
         <v>6</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C328" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -8310,16 +8310,16 @@
         <v>6</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C329" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -8327,16 +8327,16 @@
         <v>6</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C330" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C331" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -8361,16 +8361,16 @@
         <v>6</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C332" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -8378,16 +8378,16 @@
         <v>6</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C333" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -8395,16 +8395,16 @@
         <v>6</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C334" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -8412,16 +8412,16 @@
         <v>6</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C335" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -8429,16 +8429,16 @@
         <v>6</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C336" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -8446,16 +8446,16 @@
         <v>6</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C337" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,16 +8463,16 @@
         <v>6</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C338" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -8480,16 +8480,16 @@
         <v>6</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C339" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -8497,16 +8497,16 @@
         <v>6</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C340" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -8514,16 +8514,16 @@
         <v>6</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C341" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -8531,16 +8531,16 @@
         <v>6</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C342" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -8548,16 +8548,16 @@
         <v>6</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C343" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -8565,16 +8565,16 @@
         <v>6</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C344" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -8582,16 +8582,16 @@
         <v>6</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C345" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -8599,16 +8599,16 @@
         <v>6</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C346" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -8619,13 +8619,13 @@
         <v>6</v>
       </c>
       <c r="C347" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -8633,16 +8633,16 @@
         <v>6</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C348" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -8650,16 +8650,16 @@
         <v>6</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C349" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -8667,16 +8667,16 @@
         <v>6</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C350" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -8684,16 +8684,16 @@
         <v>6</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C351" t="s">
+        <v>399</v>
+      </c>
+      <c r="E351" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E351" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="F351" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -8701,16 +8701,16 @@
         <v>6</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C352" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -8718,16 +8718,16 @@
         <v>6</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C353" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -8735,16 +8735,16 @@
         <v>6</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C354" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -8752,16 +8752,16 @@
         <v>6</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C355" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -8769,16 +8769,16 @@
         <v>6</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C356" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -8786,16 +8786,16 @@
         <v>6</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C357" t="s">
+        <v>508</v>
+      </c>
+      <c r="E357" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E357" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="F357" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -8803,16 +8803,16 @@
         <v>6</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C358" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -8820,118 +8820,118 @@
         <v>6</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C359" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>105</v>
+        <v>565</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>105</v>
+        <v>565</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>105</v>
+        <v>565</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>105</v>
+        <v>565</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>105</v>
+        <v>565</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>105</v>
+        <v>565</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>105</v>
+        <v>565</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F366">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F366">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/userEdition/standardGeography.xlsx
+++ b/userEdition/standardGeography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF038CD-5B52-4B21-9D48-E8CFD24389FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D25B3-5F7D-4745-B826-192899906A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17700" yWindow="870" windowWidth="20150" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$F$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$F$346</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="560">
   <si>
     <t>source</t>
   </si>
@@ -442,9 +442,6 @@
     <t>Curacao</t>
   </si>
   <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
     <t>CYP</t>
   </si>
   <si>
@@ -1006,9 +1003,6 @@
     <t>FYR Macedonia</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>MLI</t>
   </si>
   <si>
@@ -1432,9 +1426,6 @@
     <t>Sao Tome e Principe</t>
   </si>
   <si>
-    <t>São Tomé e Príncipe</t>
-  </si>
-  <si>
     <t>SUI</t>
   </si>
   <si>
@@ -1466,9 +1457,6 @@
   </si>
   <si>
     <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
   </si>
   <si>
     <t>SYR</t>
@@ -2078,11 +2066,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F353"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2106,7 +2097,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -2126,7 +2117,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
@@ -2146,7 +2137,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -2166,7 +2157,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -2186,7 +2177,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -2206,7 +2197,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -2226,7 +2217,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -2246,7 +2237,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>31</v>
@@ -2266,7 +2257,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>33</v>
@@ -2286,7 +2277,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>35</v>
@@ -2306,7 +2297,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>37</v>
@@ -2326,7 +2317,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>42</v>
@@ -2346,7 +2337,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>46</v>
@@ -2366,7 +2357,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
@@ -2386,7 +2377,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>48</v>
@@ -2406,7 +2397,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>50</v>
@@ -2426,7 +2417,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>52</v>
@@ -2446,7 +2437,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>54</v>
@@ -2466,7 +2457,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>58</v>
@@ -2486,7 +2477,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>59</v>
@@ -2506,7 +2497,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>61</v>
@@ -2526,7 +2517,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>63</v>
@@ -2546,7 +2537,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>67</v>
@@ -2566,7 +2557,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>69</v>
@@ -2586,7 +2577,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>71</v>
@@ -2606,7 +2597,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>73</v>
@@ -2626,7 +2617,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>75</v>
@@ -2646,7 +2637,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>79</v>
@@ -2666,7 +2657,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>80</v>
@@ -2686,7 +2677,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>84</v>
@@ -2706,7 +2697,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>85</v>
@@ -2726,7 +2717,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>87</v>
@@ -2746,7 +2737,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>89</v>
@@ -2766,7 +2757,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>92</v>
@@ -2786,7 +2777,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>94</v>
@@ -2806,7 +2797,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>95</v>
@@ -2826,7 +2817,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>97</v>
@@ -2846,7 +2837,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>101</v>
@@ -2866,7 +2857,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>104</v>
@@ -2886,7 +2877,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>107</v>
@@ -2906,7 +2897,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>110</v>
@@ -2926,7 +2917,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>113</v>
@@ -2946,7 +2937,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>117</v>
@@ -2966,7 +2957,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>119</v>
@@ -2986,7 +2977,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>121</v>
@@ -3006,7 +2997,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>122</v>
@@ -3026,13 +3017,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -3046,4799 +3037,4778 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C96" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C99" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C100" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C101" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C102" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C103" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C104" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C105" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C106" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C107" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C108" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C110" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C112" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C113" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C114" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D114" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C115" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C119" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C120" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C121" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C122" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D122" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C123" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C125" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C126" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C127" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D127" t="s">
         <v>19</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C128" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D128" t="s">
         <v>19</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C129" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D129" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C130" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C131" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C132" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C133" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D133" t="s">
         <v>22</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D134" t="s">
         <v>22</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C135" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C136" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D136" t="s">
         <v>22</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C137" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D137" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C138" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C139" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C140" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D141" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C142" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C143" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C144" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C145" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D145" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C146" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C147" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C148" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C149" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C150" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C151" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C152" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D152" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C153" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D153" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C154" t="s">
         <v>397</v>
       </c>
-      <c r="C154" t="s">
-        <v>396</v>
-      </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C155" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C156" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D156" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C157" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C158" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C159" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C160" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C161" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C162" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D162" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C163" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D163" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C164" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D164" t="s">
         <v>19</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C165" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D165" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C166" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D166" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C167" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C168" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C169" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D169" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C170" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D170" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C171" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D171" t="s">
         <v>22</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C172" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D172" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C173" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C174" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C175" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C176" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D176" t="s">
         <v>19</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C177" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D177" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C178" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D178" t="s">
         <v>22</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C179" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C180" t="s">
-        <v>463</v>
+        <v>100</v>
       </c>
       <c r="D180" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>463</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C181" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D181" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C182" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="D182" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C183" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D183" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C184" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="D184" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C185" t="s">
-        <v>100</v>
+        <v>477</v>
       </c>
       <c r="D185" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>100</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C186" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C187" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="D187" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C188" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D188" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C189" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C190" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D190" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C191" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D191" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C192" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D192" t="s">
         <v>13</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="C193" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D193" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C194" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D194" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C195" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="C196" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C197" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D197" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="C198" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="D198" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C199" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D199" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C200" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="C201" t="s">
-        <v>502</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>502</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="C202" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D202" t="s">
         <v>22</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C203" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C204" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C205" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="D205" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C206" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="D206" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C207" t="s">
-        <v>10</v>
+        <v>528</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C208" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D208" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C209" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="D209" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="C210" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D210" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C211" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="D211" t="s">
         <v>16</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C212" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D212" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C213" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D213" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C214" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D214" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C215" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C216" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="D216" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C217" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="C218" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C219" t="s">
-        <v>543</v>
-      </c>
-      <c r="D219" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>542</v>
+        <v>107</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>543</v>
+        <v>108</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C220" t="s">
-        <v>547</v>
-      </c>
-      <c r="D220" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>546</v>
+        <v>187</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>547</v>
+        <v>186</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C221" t="s">
-        <v>549</v>
-      </c>
-      <c r="D221" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>548</v>
+        <v>267</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>549</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C222" t="s">
-        <v>551</v>
-      </c>
-      <c r="D222" t="s">
-        <v>19</v>
+        <v>457</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>550</v>
+        <v>176</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>551</v>
+        <v>175</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C223" t="s">
-        <v>555</v>
-      </c>
-      <c r="D223" t="s">
-        <v>22</v>
+        <v>517</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>554</v>
+        <v>200</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>555</v>
+        <v>199</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C224" t="s">
-        <v>557</v>
-      </c>
-      <c r="D224" t="s">
-        <v>22</v>
+        <v>521</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>558</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>559</v>
-      </c>
-      <c r="D225" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>558</v>
+        <v>9</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>559</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="C226" t="s">
+        <v>30</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>186</v>
+        <v>40</v>
+      </c>
+      <c r="C227" t="s">
+        <v>41</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>266</v>
+        <v>44</v>
+      </c>
+      <c r="C228" t="s">
+        <v>45</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>459</v>
+        <v>56</v>
+      </c>
+      <c r="C229" t="s">
+        <v>57</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>521</v>
+        <v>65</v>
+      </c>
+      <c r="C230" t="s">
+        <v>66</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>525</v>
+        <v>77</v>
+      </c>
+      <c r="C231" t="s">
+        <v>78</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>527</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C232" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C233" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C234" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>47</v>
+        <v>467</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C235" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C236" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C237" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C238" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C239" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="C240" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="C241" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>470</v>
+        <v>157</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C242" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="C243" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C244" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C245" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="C246" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C247" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="C248" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C249" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="C250" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="C251" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C252" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="C253" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C254" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="C255" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="C256" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C257" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C258" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C259" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="C261" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C262" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="C263" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="C264" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="C265" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="C266" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="C267" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="C268" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="C269" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="C270" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="C271" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="C272" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>310</v>
+        <v>383</v>
       </c>
       <c r="C273" t="s">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>311</v>
+        <v>384</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="C274" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="C275" t="s">
-        <v>318</v>
+        <v>394</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>318</v>
+        <v>394</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="C276" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="C278" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="C279" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="C280" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="C281" t="s">
-        <v>393</v>
+        <v>280</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>393</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="C282" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="C283" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="C284" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="C285" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>416</v>
+        <v>490</v>
       </c>
       <c r="C286" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="C287" t="s">
-        <v>422</v>
+        <v>504</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>424</v>
+        <v>504</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>427</v>
+        <v>510</v>
       </c>
       <c r="C288" t="s">
-        <v>281</v>
+        <v>511</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>280</v>
+        <v>556</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>281</v>
+        <v>511</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>436</v>
+        <v>512</v>
       </c>
       <c r="C289" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>442</v>
+        <v>521</v>
       </c>
       <c r="C290" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>444</v>
+        <v>523</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>445</v>
+        <v>524</v>
       </c>
       <c r="C291" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>474</v>
+        <v>519</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
       <c r="C292" t="s">
-        <v>452</v>
+        <v>541</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>451</v>
+        <v>533</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>452</v>
+        <v>534</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="C293" t="s">
-        <v>495</v>
+        <v>418</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>495</v>
+        <v>418</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>507</v>
+        <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>508</v>
+        <v>8</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>513</v>
+        <v>7</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>508</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>514</v>
+        <v>46</v>
       </c>
       <c r="C295" t="s">
-        <v>515</v>
+        <v>45</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>560</v>
+        <v>46</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>515</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>516</v>
+        <v>47</v>
       </c>
       <c r="C296" t="s">
-        <v>517</v>
+        <v>41</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>522</v>
+        <v>47</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>517</v>
+        <v>41</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>525</v>
+        <v>58</v>
       </c>
       <c r="C297" t="s">
-        <v>526</v>
+        <v>57</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>527</v>
+        <v>58</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>527</v>
+        <v>57</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>528</v>
+        <v>84</v>
       </c>
       <c r="C298" t="s">
-        <v>524</v>
+        <v>83</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>523</v>
+        <v>84</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>524</v>
+        <v>83</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>544</v>
+        <v>94</v>
       </c>
       <c r="C299" t="s">
-        <v>545</v>
+        <v>91</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>537</v>
+        <v>94</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>538</v>
+        <v>91</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>552</v>
+        <v>103</v>
       </c>
       <c r="C300" t="s">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>420</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
@@ -7846,16 +7816,16 @@
         <v>6</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C301" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
@@ -7863,16 +7833,16 @@
         <v>6</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C302" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
@@ -7880,16 +7850,16 @@
         <v>6</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C303" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
@@ -7897,16 +7867,16 @@
         <v>6</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C304" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
@@ -7914,16 +7884,16 @@
         <v>6</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C305" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
@@ -7931,16 +7901,16 @@
         <v>6</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C306" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
@@ -7948,16 +7918,16 @@
         <v>6</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C307" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>470</v>
+        <v>146</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
@@ -7965,16 +7935,16 @@
         <v>6</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C308" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
@@ -7982,16 +7952,16 @@
         <v>6</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="C309" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
@@ -7999,16 +7969,16 @@
         <v>6</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="C310" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
@@ -8016,16 +7986,16 @@
         <v>6</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="C311" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -8033,16 +8003,16 @@
         <v>6</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C312" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
@@ -8050,16 +8020,16 @@
         <v>6</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C313" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
@@ -8067,16 +8037,16 @@
         <v>6</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C314" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
@@ -8084,16 +8054,16 @@
         <v>6</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="C315" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
@@ -8101,16 +8071,16 @@
         <v>6</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C316" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
@@ -8118,16 +8088,16 @@
         <v>6</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C317" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
@@ -8135,16 +8105,16 @@
         <v>6</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="C318" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
@@ -8152,16 +8122,16 @@
         <v>6</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="C319" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
@@ -8169,16 +8139,16 @@
         <v>6</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="C320" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -8186,16 +8156,16 @@
         <v>6</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="C321" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
@@ -8203,16 +8173,16 @@
         <v>6</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="C322" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
@@ -8220,16 +8190,16 @@
         <v>6</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="C323" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
@@ -8237,16 +8207,16 @@
         <v>6</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C324" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
@@ -8254,16 +8224,16 @@
         <v>6</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="C325" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
@@ -8271,16 +8241,16 @@
         <v>6</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="C326" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
@@ -8288,16 +8258,16 @@
         <v>6</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="C327" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
@@ -8305,16 +8275,16 @@
         <v>6</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="C328" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
@@ -8322,16 +8292,16 @@
         <v>6</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="C329" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
@@ -8339,16 +8309,16 @@
         <v>6</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="C330" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
@@ -8356,16 +8326,16 @@
         <v>6</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="C331" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
@@ -8373,16 +8343,16 @@
         <v>6</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="C332" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
@@ -8390,16 +8360,16 @@
         <v>6</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="C333" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
@@ -8407,16 +8377,16 @@
         <v>6</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="C334" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -8424,16 +8394,16 @@
         <v>6</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="C335" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
@@ -8441,16 +8411,16 @@
         <v>6</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="C336" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
@@ -8458,16 +8428,16 @@
         <v>6</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="C337" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
@@ -8475,16 +8445,16 @@
         <v>6</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="C338" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
@@ -8492,16 +8462,16 @@
         <v>6</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C339" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
@@ -8509,16 +8479,16 @@
         <v>6</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="C340" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
@@ -8526,16 +8496,16 @@
         <v>6</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>6</v>
+        <v>471</v>
       </c>
       <c r="C341" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>6</v>
+        <v>471</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
@@ -8543,16 +8513,16 @@
         <v>6</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="C342" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
@@ -8560,16 +8530,16 @@
         <v>6</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>381</v>
+        <v>475</v>
       </c>
       <c r="C343" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>381</v>
+        <v>475</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
@@ -8577,16 +8547,16 @@
         <v>6</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>383</v>
+        <v>509</v>
       </c>
       <c r="C344" t="s">
-        <v>384</v>
+        <v>504</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>383</v>
+        <v>509</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>384</v>
+        <v>504</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
@@ -8594,16 +8564,16 @@
         <v>6</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>404</v>
+        <v>523</v>
       </c>
       <c r="C345" t="s">
-        <v>399</v>
+        <v>522</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>404</v>
+        <v>523</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>399</v>
+        <v>523</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
@@ -8611,135 +8581,16 @@
         <v>6</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>409</v>
+        <v>549</v>
       </c>
       <c r="C346" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A347" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C347" t="s">
-        <v>424</v>
-      </c>
-      <c r="E347" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A348" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C348" t="s">
-        <v>475</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A349" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C349" t="s">
-        <v>477</v>
-      </c>
-      <c r="E349" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F349" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A350" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C350" t="s">
-        <v>437</v>
-      </c>
-      <c r="E350" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F350" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A351" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C351" t="s">
-        <v>508</v>
-      </c>
-      <c r="E351" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F351" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A352" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C352" t="s">
-        <v>526</v>
-      </c>
-      <c r="E352" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A353" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C353" t="s">
-        <v>420</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/userEdition/standardGeography.xlsx
+++ b/userEdition/standardGeography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D25B3-5F7D-4745-B826-192899906A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211EAB3F-41C1-4792-B592-0814FA0F99E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="870" windowWidth="20150" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="564">
   <si>
     <t>source</t>
   </si>
@@ -1396,9 +1396,6 @@
     <t>Somalia</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>SRB</t>
   </si>
   <si>
@@ -1576,9 +1573,6 @@
     <t>Uganda</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>UKR</t>
   </si>
   <si>
@@ -1703,6 +1697,24 @@
   </si>
   <si>
     <t>music</t>
+  </si>
+  <si>
+    <t>BEIJING</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>MADRID</t>
+  </si>
+  <si>
+    <t>NEWYORK</t>
+  </si>
+  <si>
+    <t>PARIS</t>
+  </si>
+  <si>
+    <t>TOKYO</t>
   </si>
 </sst>
 </file>
@@ -2070,12 +2082,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2095,9 +2107,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -2115,9 +2127,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
@@ -2135,9 +2147,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -2155,9 +2167,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -2175,9 +2187,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -2195,9 +2207,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -2215,9 +2227,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -2235,9 +2247,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>31</v>
@@ -2255,9 +2267,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>33</v>
@@ -2275,9 +2287,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>35</v>
@@ -2295,9 +2307,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>37</v>
@@ -2315,9 +2327,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>42</v>
@@ -2335,9 +2347,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>46</v>
@@ -2355,9 +2367,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
@@ -2375,9 +2387,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>48</v>
@@ -2395,9 +2407,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>50</v>
@@ -2415,9 +2427,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>52</v>
@@ -2435,9 +2447,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>54</v>
@@ -2455,9 +2467,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>58</v>
@@ -2475,9 +2487,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>59</v>
@@ -2495,9 +2507,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>61</v>
@@ -2515,9 +2527,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>63</v>
@@ -2535,9 +2547,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>67</v>
@@ -2555,9 +2567,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>69</v>
@@ -2575,9 +2587,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>71</v>
@@ -2595,9 +2607,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>73</v>
@@ -2615,9 +2627,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>75</v>
@@ -2635,9 +2647,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>79</v>
@@ -2655,9 +2667,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>80</v>
@@ -2675,9 +2687,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>84</v>
@@ -2695,9 +2707,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>85</v>
@@ -2715,9 +2727,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>87</v>
@@ -2735,9 +2747,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>89</v>
@@ -2755,9 +2767,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>92</v>
@@ -2775,9 +2787,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>94</v>
@@ -2795,9 +2807,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>95</v>
@@ -2815,9 +2827,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>97</v>
@@ -2835,9 +2847,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>101</v>
@@ -2855,9 +2867,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>104</v>
@@ -2875,9 +2887,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>107</v>
@@ -2895,9 +2907,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>110</v>
@@ -2915,9 +2927,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>113</v>
@@ -2935,9 +2947,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>117</v>
@@ -2955,9 +2967,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>119</v>
@@ -2975,9 +2987,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>121</v>
@@ -2995,9 +3007,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>122</v>
@@ -3015,9 +3027,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>124</v>
@@ -3035,9 +3047,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>129</v>
@@ -3055,9 +3067,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>131</v>
@@ -3075,9 +3087,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>133</v>
@@ -3095,9 +3107,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>135</v>
@@ -3115,9 +3127,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>137</v>
@@ -3135,9 +3147,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>139</v>
@@ -3155,9 +3167,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>143</v>
@@ -3175,9 +3187,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>146</v>
@@ -3195,9 +3207,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>149</v>
@@ -3215,9 +3227,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>152</v>
@@ -3235,9 +3247,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>157</v>
@@ -3255,9 +3267,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>162</v>
@@ -3275,9 +3287,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>167</v>
@@ -3295,9 +3307,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>168</v>
@@ -3315,9 +3327,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>170</v>
@@ -3335,9 +3347,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>172</v>
@@ -3355,9 +3367,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>176</v>
@@ -3375,9 +3387,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>177</v>
@@ -3395,9 +3407,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>178</v>
@@ -3415,9 +3427,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>182</v>
@@ -3435,9 +3447,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>184</v>
@@ -3455,9 +3467,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>187</v>
@@ -3475,9 +3487,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>188</v>
@@ -3495,9 +3507,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>194</v>
@@ -3515,9 +3527,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>196</v>
@@ -3535,9 +3547,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>201</v>
@@ -3555,9 +3567,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>203</v>
@@ -3575,9 +3587,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>204</v>
@@ -3595,9 +3607,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>206</v>
@@ -3615,9 +3627,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>210</v>
@@ -3635,9 +3647,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>215</v>
@@ -3655,9 +3667,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>216</v>
@@ -3675,9 +3687,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>220</v>
@@ -3695,9 +3707,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>221</v>
@@ -3715,9 +3727,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>223</v>
@@ -3735,9 +3747,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>225</v>
@@ -3755,9 +3767,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>227</v>
@@ -3775,9 +3787,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>231</v>
@@ -3795,9 +3807,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>234</v>
@@ -3815,9 +3827,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>237</v>
@@ -3835,9 +3847,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>240</v>
@@ -3855,9 +3867,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>247</v>
@@ -3875,9 +3887,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>248</v>
@@ -3895,9 +3907,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>250</v>
@@ -3915,9 +3927,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>252</v>
@@ -3935,9 +3947,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>256</v>
@@ -3955,9 +3967,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>257</v>
@@ -3975,9 +3987,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>260</v>
@@ -3995,9 +4007,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>261</v>
@@ -4015,9 +4027,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>263</v>
@@ -4035,9 +4047,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>267</v>
@@ -4055,9 +4067,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>268</v>
@@ -4075,9 +4087,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>270</v>
@@ -4095,9 +4107,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>272</v>
@@ -4115,9 +4127,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>274</v>
@@ -4135,9 +4147,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>279</v>
@@ -4155,9 +4167,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>281</v>
@@ -4175,9 +4187,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>283</v>
@@ -4195,9 +4207,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>285</v>
@@ -4215,9 +4227,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>287</v>
@@ -4235,9 +4247,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>289</v>
@@ -4255,9 +4267,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>291</v>
@@ -4275,9 +4287,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>293</v>
@@ -4295,9 +4307,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>295</v>
@@ -4315,9 +4327,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>297</v>
@@ -4335,9 +4347,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>298</v>
@@ -4355,9 +4367,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>302</v>
@@ -4375,9 +4387,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>305</v>
@@ -4395,9 +4407,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>308</v>
@@ -4415,9 +4427,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>311</v>
@@ -4435,9 +4447,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>313</v>
@@ -4455,9 +4467,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>315</v>
@@ -4475,9 +4487,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>316</v>
@@ -4495,9 +4507,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>318</v>
@@ -4515,9 +4527,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>320</v>
@@ -4535,9 +4547,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>322</v>
@@ -4555,9 +4567,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>324</v>
@@ -4575,9 +4587,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>326</v>
@@ -4595,9 +4607,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>328</v>
@@ -4615,9 +4627,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>330</v>
@@ -4635,9 +4647,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>332</v>
@@ -4655,9 +4667,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>334</v>
@@ -4675,9 +4687,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>336</v>
@@ -4695,9 +4707,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>338</v>
@@ -4715,9 +4727,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>340</v>
@@ -4735,9 +4747,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>342</v>
@@ -4755,9 +4767,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>346</v>
@@ -4775,9 +4787,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>349</v>
@@ -4795,9 +4807,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>351</v>
@@ -4815,9 +4827,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>353</v>
@@ -4835,9 +4847,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>355</v>
@@ -4855,9 +4867,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>357</v>
@@ -4875,9 +4887,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>359</v>
@@ -4895,9 +4907,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>362</v>
@@ -4915,9 +4927,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>364</v>
@@ -4935,9 +4947,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>370</v>
@@ -4955,9 +4967,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>373</v>
@@ -4975,9 +4987,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>377</v>
@@ -4995,9 +5007,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>385</v>
@@ -5015,9 +5027,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>387</v>
@@ -5035,9 +5047,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>388</v>
@@ -5055,9 +5067,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>392</v>
@@ -5075,9 +5087,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>395</v>
@@ -5095,9 +5107,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>398</v>
@@ -5115,9 +5127,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>400</v>
@@ -5135,9 +5147,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>402</v>
@@ -5155,9 +5167,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>403</v>
@@ -5175,9 +5187,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>405</v>
@@ -5195,9 +5207,9 @@
         <v>406</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>409</v>
@@ -5215,9 +5227,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>412</v>
@@ -5235,9 +5247,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>416</v>
@@ -5255,9 +5267,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>417</v>
@@ -5275,9 +5287,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>421</v>
@@ -5295,9 +5307,9 @@
         <v>422</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>423</v>
@@ -5315,9 +5327,9 @@
         <v>424</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>426</v>
@@ -5335,9 +5347,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>428</v>
@@ -5355,9 +5367,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>430</v>
@@ -5375,9 +5387,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>432</v>
@@ -5395,9 +5407,9 @@
         <v>433</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>436</v>
@@ -5415,9 +5427,9 @@
         <v>437</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>438</v>
@@ -5435,9 +5447,9 @@
         <v>439</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>442</v>
@@ -5455,9 +5467,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>445</v>
@@ -5475,9 +5487,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>447</v>
@@ -5495,9 +5507,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>449</v>
@@ -5515,9 +5527,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>451</v>
@@ -5535,9 +5547,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>453</v>
@@ -5555,9 +5567,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>455</v>
@@ -5575,92 +5587,92 @@
         <v>456</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C176" t="s">
         <v>458</v>
-      </c>
-      <c r="C176" t="s">
-        <v>459</v>
       </c>
       <c r="D176" t="s">
         <v>19</v>
       </c>
       <c r="E176" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F176" s="2" t="s">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B177" s="3" t="s">
+      <c r="C177" t="s">
         <v>460</v>
-      </c>
-      <c r="C177" t="s">
-        <v>461</v>
       </c>
       <c r="D177" t="s">
         <v>13</v>
       </c>
       <c r="E177" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F177" s="2" t="s">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B178" s="3" t="s">
+      <c r="C178" t="s">
         <v>462</v>
-      </c>
-      <c r="C178" t="s">
-        <v>463</v>
       </c>
       <c r="D178" t="s">
         <v>22</v>
       </c>
       <c r="E178" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F178" s="2" t="s">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="C179" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D179" t="s">
         <v>22</v>
       </c>
       <c r="E179" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C180" t="s">
         <v>100</v>
@@ -5669,38 +5681,38 @@
         <v>19</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C181" t="s">
         <v>468</v>
-      </c>
-      <c r="C181" t="s">
-        <v>469</v>
       </c>
       <c r="D181" t="s">
         <v>16</v>
       </c>
       <c r="E181" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C182" t="s">
         <v>444</v>
@@ -5709,38 +5721,38 @@
         <v>19</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C183" t="s">
         <v>473</v>
-      </c>
-      <c r="C183" t="s">
-        <v>474</v>
       </c>
       <c r="D183" t="s">
         <v>19</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F183" s="2" t="s">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="C184" t="s">
         <v>435</v>
@@ -5749,338 +5761,338 @@
         <v>19</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C185" t="s">
         <v>476</v>
-      </c>
-      <c r="C185" t="s">
-        <v>477</v>
       </c>
       <c r="D185" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F185" s="2" t="s">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B186" s="3" t="s">
+      <c r="C186" t="s">
         <v>478</v>
-      </c>
-      <c r="C186" t="s">
-        <v>479</v>
       </c>
       <c r="D186" t="s">
         <v>13</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F186" s="2" t="s">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B187" s="3" t="s">
+      <c r="C187" t="s">
         <v>480</v>
-      </c>
-      <c r="C187" t="s">
-        <v>481</v>
       </c>
       <c r="D187" t="s">
         <v>39</v>
       </c>
       <c r="E187" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F187" s="2" t="s">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B188" s="3" t="s">
+      <c r="C188" t="s">
         <v>482</v>
-      </c>
-      <c r="C188" t="s">
-        <v>483</v>
       </c>
       <c r="D188" t="s">
         <v>22</v>
       </c>
       <c r="E188" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F188" s="2" t="s">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B189" s="3" t="s">
+      <c r="C189" t="s">
         <v>484</v>
-      </c>
-      <c r="C189" t="s">
-        <v>485</v>
       </c>
       <c r="D189" t="s">
         <v>16</v>
       </c>
       <c r="E189" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F189" s="2" t="s">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B190" s="3" t="s">
+      <c r="C190" t="s">
         <v>486</v>
-      </c>
-      <c r="C190" t="s">
-        <v>487</v>
       </c>
       <c r="D190" t="s">
         <v>19</v>
       </c>
       <c r="E190" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F190" s="2" t="s">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B191" s="3" t="s">
+      <c r="C191" t="s">
         <v>488</v>
-      </c>
-      <c r="C191" t="s">
-        <v>489</v>
       </c>
       <c r="D191" t="s">
         <v>39</v>
       </c>
       <c r="E191" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F191" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D192" t="s">
         <v>13</v>
       </c>
       <c r="E192" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B193" s="3" t="s">
+      <c r="C193" t="s">
         <v>493</v>
-      </c>
-      <c r="C193" t="s">
-        <v>494</v>
       </c>
       <c r="D193" t="s">
         <v>13</v>
       </c>
       <c r="E193" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="F193" s="2" t="s">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B194" s="3" t="s">
+      <c r="C194" t="s">
         <v>495</v>
-      </c>
-      <c r="C194" t="s">
-        <v>496</v>
       </c>
       <c r="D194" t="s">
         <v>13</v>
       </c>
       <c r="E194" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F194" s="2" t="s">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B195" s="3" t="s">
+      <c r="C195" t="s">
         <v>497</v>
-      </c>
-      <c r="C195" t="s">
-        <v>498</v>
       </c>
       <c r="D195" t="s">
         <v>13</v>
       </c>
       <c r="E195" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F195" s="2" t="s">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B196" s="3" t="s">
+      <c r="C196" t="s">
         <v>499</v>
-      </c>
-      <c r="C196" t="s">
-        <v>500</v>
       </c>
       <c r="D196" t="s">
         <v>22</v>
       </c>
       <c r="E196" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F196" s="2" t="s">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B197" s="3" t="s">
+      <c r="C197" t="s">
         <v>501</v>
-      </c>
-      <c r="C197" t="s">
-        <v>502</v>
       </c>
       <c r="D197" t="s">
         <v>13</v>
       </c>
       <c r="E197" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C198" t="s">
         <v>505</v>
-      </c>
-      <c r="C198" t="s">
-        <v>506</v>
       </c>
       <c r="D198" t="s">
         <v>16</v>
       </c>
       <c r="E198" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="F198" s="2" t="s">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B199" s="3" t="s">
+      <c r="C199" t="s">
         <v>507</v>
-      </c>
-      <c r="C199" t="s">
-        <v>508</v>
       </c>
       <c r="D199" t="s">
         <v>22</v>
       </c>
       <c r="E199" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F199" s="2" t="s">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>509</v>
-      </c>
       <c r="C200" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D200" t="s">
         <v>19</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C201" t="s">
         <v>10</v>
@@ -6089,358 +6101,358 @@
         <v>13</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C202" t="s">
         <v>515</v>
-      </c>
-      <c r="C202" t="s">
-        <v>516</v>
       </c>
       <c r="D202" t="s">
         <v>22</v>
       </c>
       <c r="E202" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F202" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F202" s="2" t="s">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>518</v>
-      </c>
       <c r="C203" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D203" t="s">
         <v>19</v>
       </c>
       <c r="E203" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C204" t="s">
         <v>518</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C204" t="s">
-        <v>520</v>
       </c>
       <c r="D204" t="s">
         <v>32</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C205" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D205" t="s">
         <v>16</v>
       </c>
       <c r="E205" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="F205" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="C206" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D206" t="s">
         <v>13</v>
       </c>
       <c r="E206" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="C207" t="s">
         <v>526</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C207" t="s">
-        <v>528</v>
       </c>
       <c r="D207" t="s">
         <v>39</v>
       </c>
       <c r="E207" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="C208" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C208" t="s">
-        <v>530</v>
       </c>
       <c r="D208" t="s">
         <v>32</v>
       </c>
       <c r="E208" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="C209" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C209" t="s">
-        <v>532</v>
       </c>
       <c r="D209" t="s">
         <v>16</v>
       </c>
       <c r="E209" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="C210" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C210" t="s">
-        <v>534</v>
       </c>
       <c r="D210" t="s">
         <v>13</v>
       </c>
       <c r="E210" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B211" s="3" t="s">
+      <c r="C211" t="s">
         <v>535</v>
-      </c>
-      <c r="C211" t="s">
-        <v>537</v>
       </c>
       <c r="D211" t="s">
         <v>16</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F211" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>538</v>
-      </c>
       <c r="C212" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D212" t="s">
         <v>16</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C213" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D213" t="s">
         <v>19</v>
       </c>
       <c r="E213" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F213" s="2" t="s">
+      <c r="C214" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C214" t="s">
-        <v>545</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
       </c>
       <c r="E214" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="F214" s="2" t="s">
+      <c r="C215" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C215" t="s">
-        <v>547</v>
       </c>
       <c r="D215" t="s">
         <v>19</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C216" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D216" t="s">
         <v>22</v>
       </c>
       <c r="E216" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="C217" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C217" t="s">
-        <v>553</v>
       </c>
       <c r="D217" t="s">
         <v>22</v>
       </c>
       <c r="E217" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="F217" s="2" t="s">
+      <c r="C218" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C218" t="s">
-        <v>555</v>
       </c>
       <c r="D218" t="s">
         <v>22</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>107</v>
@@ -6449,12 +6461,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>185</v>
+        <v>562</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>187</v>
@@ -6463,12 +6475,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>265</v>
+        <v>563</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>267</v>
@@ -6477,12 +6489,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>457</v>
+        <v>560</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>176</v>
@@ -6491,12 +6503,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>200</v>
@@ -6505,23 +6517,23 @@
         <v>199</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B224" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="F224" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>9</v>
@@ -6536,9 +6548,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>29</v>
@@ -6553,9 +6565,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>40</v>
@@ -6570,9 +6582,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>44</v>
@@ -6587,9 +6599,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>56</v>
@@ -6604,9 +6616,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>65</v>
@@ -6621,9 +6633,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>77</v>
@@ -6638,9 +6650,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>82</v>
@@ -6655,9 +6667,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>90</v>
@@ -6672,9 +6684,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>99</v>
@@ -6683,15 +6695,15 @@
         <v>100</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>112</v>
@@ -6706,9 +6718,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>115</v>
@@ -6723,9 +6735,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>127</v>
@@ -6740,9 +6752,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>141</v>
@@ -6757,9 +6769,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>144</v>
@@ -6774,9 +6786,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>151</v>
@@ -6791,9 +6803,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>155</v>
@@ -6808,9 +6820,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>160</v>
@@ -6825,9 +6837,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>163</v>
@@ -6842,9 +6854,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>165</v>
@@ -6859,9 +6871,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>174</v>
@@ -6876,9 +6888,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>180</v>
@@ -6893,9 +6905,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>185</v>
@@ -6910,9 +6922,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>198</v>
@@ -6927,9 +6939,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>208</v>
@@ -6944,9 +6956,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>212</v>
@@ -6961,9 +6973,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>218</v>
@@ -6978,9 +6990,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>229</v>
@@ -6995,9 +7007,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>232</v>
@@ -7012,9 +7024,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>235</v>
@@ -7029,9 +7041,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>238</v>
@@ -7046,9 +7058,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>241</v>
@@ -7063,9 +7075,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>243</v>
@@ -7080,9 +7092,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>245</v>
@@ -7097,9 +7109,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>254</v>
@@ -7114,9 +7126,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>258</v>
@@ -7131,9 +7143,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>265</v>
@@ -7148,9 +7160,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>277</v>
@@ -7165,9 +7177,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>300</v>
@@ -7182,9 +7194,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>303</v>
@@ -7199,9 +7211,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>306</v>
@@ -7216,9 +7228,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>309</v>
@@ -7233,9 +7245,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>344</v>
@@ -7250,9 +7262,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>345</v>
@@ -7267,9 +7279,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>361</v>
@@ -7284,9 +7296,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>366</v>
@@ -7301,9 +7313,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>368</v>
@@ -7318,9 +7330,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>371</v>
@@ -7335,9 +7347,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>383</v>
@@ -7352,9 +7364,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>390</v>
@@ -7369,9 +7381,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>393</v>
@@ -7386,9 +7398,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>396</v>
@@ -7403,9 +7415,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>408</v>
@@ -7420,9 +7432,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>411</v>
@@ -7437,9 +7449,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>414</v>
@@ -7454,9 +7466,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>419</v>
@@ -7471,9 +7483,9 @@
         <v>422</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>425</v>
@@ -7488,9 +7500,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>434</v>
@@ -7499,15 +7511,15 @@
         <v>435</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>440</v>
@@ -7522,9 +7534,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>443</v>
@@ -7533,18 +7545,18 @@
         <v>444</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C285" t="s">
         <v>450</v>
@@ -7556,131 +7568,131 @@
         <v>450</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C286" t="s">
         <v>490</v>
       </c>
-      <c r="C286" t="s">
+      <c r="E286" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E286" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="F286" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C287" t="s">
         <v>503</v>
       </c>
-      <c r="C287" t="s">
-        <v>504</v>
-      </c>
       <c r="E287" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B288" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F287" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A288" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B288" s="3" t="s">
+      <c r="C288" t="s">
         <v>510</v>
       </c>
-      <c r="C288" t="s">
+      <c r="E288" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B289" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="E288" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A289" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B289" s="3" t="s">
+      <c r="C289" t="s">
         <v>512</v>
       </c>
-      <c r="C289" t="s">
-        <v>513</v>
-      </c>
       <c r="E289" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C290" t="s">
+        <v>520</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C291" t="s">
         <v>518</v>
       </c>
-      <c r="F289" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C290" t="s">
-        <v>522</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C291" t="s">
-        <v>520</v>
-      </c>
       <c r="E291" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C292" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C293" t="s">
         <v>418</v>
@@ -7692,7 +7704,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>6</v>
       </c>
@@ -7709,7 +7721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>6</v>
       </c>
@@ -7726,7 +7738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>6</v>
       </c>
@@ -7743,7 +7755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>6</v>
       </c>
@@ -7760,7 +7772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>6</v>
       </c>
@@ -7777,7 +7789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>6</v>
       </c>
@@ -7794,7 +7806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>6</v>
       </c>
@@ -7805,13 +7817,13 @@
         <v>100</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>6</v>
       </c>
@@ -7828,7 +7840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>6</v>
       </c>
@@ -7845,7 +7857,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>6</v>
       </c>
@@ -7862,7 +7874,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>6</v>
       </c>
@@ -7879,7 +7891,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>6</v>
       </c>
@@ -7896,7 +7908,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>6</v>
       </c>
@@ -7913,7 +7925,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>6</v>
       </c>
@@ -7930,7 +7942,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>6</v>
       </c>
@@ -7947,7 +7959,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>6</v>
       </c>
@@ -7964,7 +7976,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>6</v>
       </c>
@@ -7981,7 +7993,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>6</v>
       </c>
@@ -7998,7 +8010,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>6</v>
       </c>
@@ -8015,7 +8027,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>6</v>
       </c>
@@ -8032,7 +8044,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>6</v>
       </c>
@@ -8049,7 +8061,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>6</v>
       </c>
@@ -8066,7 +8078,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>6</v>
       </c>
@@ -8083,7 +8095,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>6</v>
       </c>
@@ -8100,7 +8112,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>6</v>
       </c>
@@ -8117,7 +8129,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>6</v>
       </c>
@@ -8134,7 +8146,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>6</v>
       </c>
@@ -8151,7 +8163,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>6</v>
       </c>
@@ -8168,7 +8180,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>6</v>
       </c>
@@ -8185,7 +8197,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>6</v>
       </c>
@@ -8202,7 +8214,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>6</v>
       </c>
@@ -8219,7 +8231,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>6</v>
       </c>
@@ -8236,7 +8248,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>6</v>
       </c>
@@ -8253,7 +8265,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>6</v>
       </c>
@@ -8270,7 +8282,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>6</v>
       </c>
@@ -8287,7 +8299,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>6</v>
       </c>
@@ -8304,7 +8316,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>6</v>
       </c>
@@ -8321,7 +8333,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>6</v>
       </c>
@@ -8338,7 +8350,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>6</v>
       </c>
@@ -8355,7 +8367,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>6</v>
       </c>
@@ -8372,7 +8384,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>6</v>
       </c>
@@ -8389,7 +8401,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>6</v>
       </c>
@@ -8406,7 +8418,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>6</v>
       </c>
@@ -8423,7 +8435,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>6</v>
       </c>
@@ -8440,7 +8452,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>6</v>
       </c>
@@ -8457,7 +8469,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>6</v>
       </c>
@@ -8474,7 +8486,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>6</v>
       </c>
@@ -8491,97 +8503,97 @@
         <v>422</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B341" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C341" t="s">
         <v>471</v>
       </c>
-      <c r="C341" t="s">
-        <v>472</v>
-      </c>
       <c r="E341" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C342" t="s">
         <v>473</v>
       </c>
-      <c r="C342" t="s">
-        <v>474</v>
-      </c>
       <c r="E342" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F342" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F342" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C343" t="s">
         <v>435</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C344" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C345" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C346" t="s">
         <v>418</v>

--- a/userEdition/standardGeography.xlsx
+++ b/userEdition/standardGeography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BA3DDB-8B72-49A0-8CAD-C95B68DCAC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F525D1-6489-4C29-A720-3CF76D81EB5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="1320" windowWidth="28965" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1135,11 +1135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
   </cols>
